--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_pseudoinverse_kernel_sigma_0.1.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_pseudoinverse_kernel_sigma_0.1.xlsx
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.89380530973452</v>
+        <v>91.23893805309736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1511853493924718</v>
+        <v>0.2609355577262856</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9389380530973451</v>
+        <v>0.9123893805309734</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9382886085311501</v>
+        <v>0.9081167392609784</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.42056592185054</v>
+        <v>86.17038209673095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3251690777285451</v>
+        <v>0.3758172980792854</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8742056592185052</v>
+        <v>0.8617038209673094</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8703013845631988</v>
+        <v>0.8469498632797862</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +509,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.10029498525073</v>
+        <v>94.51327433628319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1411991736514741</v>
+        <v>0.1471448445656885</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9410029498525073</v>
+        <v>0.9451327433628318</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9413260114497298</v>
+        <v>0.9442112659929514</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.03244837758112</v>
+        <v>89.6165191740413</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2126422766440859</v>
+        <v>0.3568392286610712</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9103244837758112</v>
+        <v>0.896165191740413</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9048691852196024</v>
+        <v>0.8881863677267674</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.48393152189898</v>
+        <v>78.20854851685569</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7036884884844767</v>
+        <v>0.6402434091331088</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8248393152189898</v>
+        <v>0.7820854851685568</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8036567515080018</v>
+        <v>0.7633815449403653</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.14644590351128</v>
+        <v>88.05465445202813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3731979515907975</v>
+        <v>0.287620124577855</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8914644590351127</v>
+        <v>0.8805465445202814</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8781425810371773</v>
+        <v>0.8780683487277544</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.05327035701001</v>
+        <v>90.26583274941825</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3225568496010965</v>
+        <v>0.2676659291134759</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8805327035701002</v>
+        <v>0.9026583274941824</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8785265826027764</v>
+        <v>0.8967734209136106</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.71091445427729</v>
+        <v>91.35693215339234</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2188868244288945</v>
+        <v>0.209664802169118</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9171091445427729</v>
+        <v>0.9135693215339232</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9124238569362841</v>
+        <v>0.9118666942134862</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90.61946902654867</v>
+        <v>91.76991150442477</v>
       </c>
       <c r="C10" t="n">
-        <v>0.244220337793619</v>
+        <v>0.1975675514157046</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9061946902654867</v>
+        <v>0.9176991150442477</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9031352849585742</v>
+        <v>0.916395830398255</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.78761061946902</v>
+        <v>86.31268436578171</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3303665113248523</v>
+        <v>0.3691067446337305</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8778761061946903</v>
+        <v>0.8631268436578171</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8716182397658031</v>
+        <v>0.8548491062318654</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.54277286135694</v>
+        <v>83.92330383480825</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6335813745750783</v>
+        <v>0.5980199181029698</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8454277286135692</v>
+        <v>0.8392330383480825</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8395377048248818</v>
+        <v>0.842016218842479</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.54277286135694</v>
+        <v>83.68731563421829</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6332625755962605</v>
+        <v>0.6875263976825712</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8454277286135692</v>
+        <v>0.8368731563421828</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8280683749139085</v>
+        <v>0.8228175664955669</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +699,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.10914454277285</v>
+        <v>96.93215339233038</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08338788612863937</v>
+        <v>0.07714785931038932</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9710914454277286</v>
+        <v>0.9693215339233039</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9710520275885811</v>
+        <v>0.9694364354026925</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.16519174041298</v>
+        <v>95.9882005899705</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09161626424936457</v>
+        <v>0.09019222709028062</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9616519174041297</v>
+        <v>0.9598820058997051</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9615143246989977</v>
+        <v>0.960230657294518</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.22418879056048</v>
+        <v>96.84365781710915</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1036217013378812</v>
+        <v>0.09483623801493195</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9622418879056047</v>
+        <v>0.9684365781710914</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9617242115100935</v>
+        <v>0.9681147864192766</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90.32218848490615</v>
+        <v>89.65882057803267</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3045721761685025</v>
+        <v>0.3106885420184311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9032218848490615</v>
+        <v>0.8965882057803267</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8976123420072507</v>
+        <v>0.8914276564093569</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.29498525073747</v>
+        <v>91.68141592920354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2884193382128918</v>
+        <v>0.2104194697497102</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9029498525073747</v>
+        <v>0.9168141592920354</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8988920975791508</v>
+        <v>0.9156208609770861</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.60050692480038</v>
+        <v>78.27533110148012</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5598949379264619</v>
+        <v>0.5731882353977804</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7860050692480038</v>
+        <v>0.7827533110148012</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7714597852470482</v>
+        <v>0.7638370398270592</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.82300884955752</v>
+        <v>91.17994100294985</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2823319697495511</v>
+        <v>0.2529976187914599</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8982300884955752</v>
+        <v>0.9117994100294986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8966245182571356</v>
+        <v>0.9105562865593482</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +878,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.94464484986894</v>
+        <v>89.67551622418878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.244157122358835</v>
+        <v>0.2670948462250332</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9094464484986894</v>
+        <v>0.8967551622418879</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9043270029558472</v>
+        <v>0.8927692900593621</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.92518101367659</v>
+        <v>74.72893364129447</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9108443633342782</v>
+        <v>0.8609936657982568</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7092518101367659</v>
+        <v>0.7472893364129447</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6927639849673858</v>
+        <v>0.7276248228879716</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.67411482798295</v>
+        <v>86.91338160364708</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4553191672312096</v>
+        <v>0.4191543360628809</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8767411482798295</v>
+        <v>0.8691338160364708</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8641711145035682</v>
+        <v>0.8591672941426396</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +935,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.22123893805311</v>
+        <v>88.87992110658396</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5067250552170056</v>
+        <v>0.3442373509227764</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8522123893805309</v>
+        <v>0.8887992110658397</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8333849272881098</v>
+        <v>0.8740573908837715</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.53392330383481</v>
+        <v>89.49852507374631</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2161528800376497</v>
+        <v>0.2905412346250765</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9153392330383481</v>
+        <v>0.8949852507374632</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9154430964284945</v>
+        <v>0.8948242763602572</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +973,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90.20666268739349</v>
+        <v>90.44490004238791</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2624634485849431</v>
+        <v>0.2323904596890012</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9020666268739349</v>
+        <v>0.904449000423879</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8912671675975842</v>
+        <v>0.8993960693110387</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +992,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.23026150745248</v>
+        <v>89.52802359882006</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3022706316718541</v>
+        <v>0.2801463256801071</v>
       </c>
       <c r="D11" t="n">
-        <v>0.882302615074525</v>
+        <v>0.8952802359882005</v>
       </c>
       <c r="E11" t="n">
-        <v>0.877880805105292</v>
+        <v>0.8919302033061841</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.97674720369552</v>
+        <v>80.56081800015571</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6938076940277824</v>
+        <v>0.7404838032591821</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8197674720369553</v>
+        <v>0.8056081800015571</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8136265082004286</v>
+        <v>0.8004199451922365</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.53114646320469</v>
+        <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>0.579258508561179</v>
+        <v>0.7204970626956008</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8053114646320469</v>
+        <v>0.8</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8018521591486923</v>
+        <v>0.7906706374886536</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.74631268436579</v>
+        <v>94.51327433628319</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1558415435438898</v>
+        <v>0.1447134306419078</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9374631268436578</v>
+        <v>0.9451327433628318</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9382914649759908</v>
+        <v>0.9458680274756801</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1068,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.35693215339234</v>
+        <v>92.94985250737463</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2440141365036008</v>
+        <v>0.1752115244731992</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9135693215339232</v>
+        <v>0.9294985250737463</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9092997773379864</v>
+        <v>0.9284472064282804</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1087,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.43067846607669</v>
+        <v>96.99115044247787</v>
       </c>
       <c r="C16" t="n">
-        <v>0.112028641074797</v>
+        <v>0.0949652928309509</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9643067846607669</v>
+        <v>0.9699115044247787</v>
       </c>
       <c r="E16" t="n">
-        <v>0.963845590621189</v>
+        <v>0.9695294233542583</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1106,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87.16642300827286</v>
+        <v>87.72139897403957</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3875686292023953</v>
+        <v>0.3738023104561948</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8716642300827285</v>
+        <v>0.8772139897403959</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8648753333475935</v>
+        <v>0.8709812516169219</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1171,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.16763120788242</v>
+        <v>87.49262536873157</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7383397916223506</v>
+        <v>0.3737551093877604</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7816763120788242</v>
+        <v>0.8749262536873157</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7746065944718026</v>
+        <v>0.8694043930394961</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1190,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.31367053348212</v>
+        <v>76.53422607462002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.507634058270681</v>
+        <v>0.6526151432318632</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8031367053348213</v>
+        <v>0.7653422607462003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7868638847573594</v>
+        <v>0.7481579465605237</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.44056609486242</v>
+        <v>87.90595074351855</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2716231841923824</v>
+        <v>0.2947407030151226</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8944056609486241</v>
+        <v>0.8790595074351855</v>
       </c>
       <c r="E4" t="n">
-        <v>0.894262377126851</v>
+        <v>0.8766056589610075</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1228,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.27953529009766</v>
+        <v>83.83688440211421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4587340491823852</v>
+        <v>0.4572227718696619</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8427953529009766</v>
+        <v>0.8383688440211421</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8356495513827846</v>
+        <v>0.8291105756396207</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1247,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.46685524961289</v>
+        <v>64.34692341629253</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9514096811258543</v>
+        <v>1.190552416133384</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6846685524961289</v>
+        <v>0.6434692341629253</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6690908270536737</v>
+        <v>0.6310599071736733</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1266,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.99333904272528</v>
+        <v>83.82226489848527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5716846354616185</v>
+        <v>0.4358325158556302</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7999333904272528</v>
+        <v>0.8382226489848529</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7922578644048994</v>
+        <v>0.8365448066429264</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1285,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.88441941539287</v>
+        <v>77.52869834514139</v>
       </c>
       <c r="C8" t="n">
-        <v>0.67210343129312</v>
+        <v>0.7096907529359063</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7888441941539287</v>
+        <v>0.775286983451414</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7749038563766528</v>
+        <v>0.763144116907576</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1304,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.22016626441405</v>
+        <v>82.78358809332261</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4768480715512851</v>
+        <v>0.4314522275725419</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8122016626441404</v>
+        <v>0.827835880933226</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8120932617743926</v>
+        <v>0.8273766492555037</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.98974039567817</v>
+        <v>84.75410686943658</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4415273810426394</v>
+        <v>0.4328537719324231</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8398974039567817</v>
+        <v>0.847541068694366</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8380976965362293</v>
+        <v>0.8367629650363169</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.34543551414805</v>
+        <v>87.28665472884714</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4668958564172499</v>
+        <v>0.3380105304742756</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8234543551414804</v>
+        <v>0.8728665472884714</v>
       </c>
       <c r="E11" t="n">
-        <v>0.820623235290177</v>
+        <v>0.8687498695796828</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.46533274509295</v>
+        <v>75.51639720066783</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9227599810731286</v>
+        <v>0.7253371052749571</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7246533274509295</v>
+        <v>0.7551639720066783</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7243196189400878</v>
+        <v>0.7590315329381666</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.56857758285106</v>
+        <v>75.19606570991098</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7390537401350836</v>
+        <v>0.7659829066678261</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7756857758285107</v>
+        <v>0.7519606570991099</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7715596703075681</v>
+        <v>0.745326523864408</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1399,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.2127354042855</v>
+        <v>92.35988200589971</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1913548135198652</v>
+        <v>0.237267579503532</v>
       </c>
       <c r="D14" t="n">
-        <v>0.922127354042855</v>
+        <v>0.9235988200589971</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9212385717808443</v>
+        <v>0.9235677913431672</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1418,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85.87072552530731</v>
+        <v>85.43118885111463</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3785982059670156</v>
+        <v>0.4673708071072724</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8587072552530731</v>
+        <v>0.8543118885111463</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8480097973880196</v>
+        <v>0.8393487488239224</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.25681018001886</v>
+        <v>95.89970501474926</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1076370747119654</v>
+        <v>0.1201299986420054</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9725681018001886</v>
+        <v>0.9589970501474927</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9722468135218815</v>
+        <v>0.9582894270442136</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.16503602972345</v>
+        <v>82.71301078152349</v>
       </c>
       <c r="C17" t="n">
-        <v>0.526413597037775</v>
+        <v>0.5088542893069442</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8216503602972344</v>
+        <v>0.827130107815235</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8157215747408816</v>
+        <v>0.8208320608540138</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1521,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.09357347381898</v>
+        <v>59.7456725404199</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9786055713891983</v>
+        <v>1.006844462951024</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5709357347381898</v>
+        <v>0.5974567254041989</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5592421094574102</v>
+        <v>0.5911973154113521</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.09945587764601</v>
+        <v>58.71616536475229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9265779790778955</v>
+        <v>0.9260140885909399</v>
       </c>
       <c r="D3" t="n">
-        <v>0.57099455877646</v>
+        <v>0.5871616536475229</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5575043723195425</v>
+        <v>0.5759931262876965</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1559,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.75786987776711</v>
+        <v>68.5801780292217</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7358185504873594</v>
+        <v>0.8070798580845198</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6975786987776711</v>
+        <v>0.6858017802922171</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6952532487927423</v>
+        <v>0.6846713086763393</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.49423437919013</v>
+        <v>65.05679114871236</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9618403282016516</v>
+        <v>0.9144106035431226</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6349423437919013</v>
+        <v>0.6505679114871236</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6240212317940457</v>
+        <v>0.6320124778222658</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.74189223090166</v>
+        <v>63.95531103210235</v>
       </c>
       <c r="C6" t="n">
-        <v>1.071607309579849</v>
+        <v>1.011583287082612</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6274189223090165</v>
+        <v>0.6395531103210235</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6052191243201878</v>
+        <v>0.6208003798053372</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.84959212449935</v>
+        <v>64.86993832126575</v>
       </c>
       <c r="C7" t="n">
-        <v>1.025523884842793</v>
+        <v>0.9347433504958949</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6284959212449934</v>
+        <v>0.6486993832126575</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6155012002899156</v>
+        <v>0.6362265653464159</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1635,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.20685300045848</v>
+        <v>54.97262087042276</v>
       </c>
       <c r="C8" t="n">
-        <v>1.232010036210219</v>
+        <v>1.060301518936952</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5220685300045849</v>
+        <v>0.5497262087042276</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4850513046469125</v>
+        <v>0.5224021356224077</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52.54933001150529</v>
+        <v>54.59277329388662</v>
       </c>
       <c r="C9" t="n">
-        <v>1.273109560708205</v>
+        <v>1.156854904691378</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5254933001150529</v>
+        <v>0.5459277329388662</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5035180591162832</v>
+        <v>0.5170599033113777</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.5629633474338</v>
+        <v>58.15690447149196</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9339076767365138</v>
+        <v>0.9625115866462389</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5856296334743381</v>
+        <v>0.5815690447149197</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5776145018473416</v>
+        <v>0.5768208960704329</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1692,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65.84840699314007</v>
+        <v>64.43351586086385</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8010340947036942</v>
+        <v>0.8254603188484907</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6584840699314007</v>
+        <v>0.6443351586086384</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6486509112580237</v>
+        <v>0.6345993587528863</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58.41633578145139</v>
+        <v>56.91467919272658</v>
       </c>
       <c r="C12" t="n">
-        <v>1.059856758266687</v>
+        <v>1.078731466891865</v>
       </c>
       <c r="D12" t="n">
-        <v>0.584163357814514</v>
+        <v>0.5691467919272658</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5671191298303327</v>
+        <v>0.5615792672822203</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1730,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.75036116229379</v>
+        <v>60.15622972517063</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9500704484681288</v>
+        <v>0.9111560891071955</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6175036116229379</v>
+        <v>0.6015622972517063</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6080617719489455</v>
+        <v>0.5839823483822938</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1749,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.06901443784116</v>
+        <v>76.71398541509875</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5540463539461296</v>
+        <v>0.5453676799933115</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7806901443784116</v>
+        <v>0.7671398541509875</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7815735214703136</v>
+        <v>0.7673747629412915</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1768,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81.52501319215564</v>
+        <v>81.93314821062467</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3790792774680692</v>
+        <v>0.3855613498541061</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8152501319215564</v>
+        <v>0.8193314821062467</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8136979085930175</v>
+        <v>0.8193723050279178</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1787,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.64056782498119</v>
+        <v>90.43201065753163</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2695369650920232</v>
+        <v>0.2822034806323548</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8964056782498119</v>
+        <v>0.9043201065753165</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8973694436740945</v>
+        <v>0.9029245976959978</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1806,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.77369758100559</v>
+        <v>65.28199494228612</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8768416530118942</v>
+        <v>0.8539216030900004</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6477369758100562</v>
+        <v>0.6528199494228611</v>
       </c>
       <c r="E17" t="n">
-        <v>0.635959855957274</v>
+        <v>0.6418011165624156</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1871,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.41074749781573</v>
+        <v>50.96255157916591</v>
       </c>
       <c r="C2" t="n">
-        <v>1.310938201844692</v>
+        <v>1.31726472278436</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5241074749781574</v>
+        <v>0.5096255157916592</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4898212114297015</v>
+        <v>0.4727051406262255</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1890,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.29743336880076</v>
+        <v>51.90425522712134</v>
       </c>
       <c r="C3" t="n">
-        <v>1.117253237962723</v>
+        <v>1.158597728858391</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5329743336880076</v>
+        <v>0.5190425522712134</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4976006454623051</v>
+        <v>0.4966201324761248</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1909,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.75175390790578</v>
+        <v>57.24469934861028</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8714472261567912</v>
+        <v>1.100097004448374</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6275175390790577</v>
+        <v>0.5724469934861028</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6107482657588638</v>
+        <v>0.5604530695588829</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1928,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.35139577331984</v>
+        <v>63.8336836823848</v>
       </c>
       <c r="C5" t="n">
-        <v>1.484712220480045</v>
+        <v>1.072022716204325</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5135139577331984</v>
+        <v>0.638336836823848</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4812537478761924</v>
+        <v>0.6220617154259169</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1947,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.66163202103824</v>
+        <v>50.09974134724349</v>
       </c>
       <c r="C6" t="n">
-        <v>1.662479856156278</v>
+        <v>2.414103574235924</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5466163202103825</v>
+        <v>0.5009974134724349</v>
       </c>
       <c r="E6" t="n">
-        <v>0.486899562476065</v>
+        <v>0.4346310047226019</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1966,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.98825249353369</v>
+        <v>64.55254803242244</v>
       </c>
       <c r="C7" t="n">
-        <v>1.127397660662731</v>
+        <v>1.115544092903535</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6198825249353368</v>
+        <v>0.6455254803242243</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5982127146498185</v>
+        <v>0.6292290480339804</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1985,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.51708924817689</v>
+        <v>54.11110822757983</v>
       </c>
       <c r="C8" t="n">
-        <v>1.922712089928488</v>
+        <v>2.02644131364456</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4551708924817689</v>
+        <v>0.5411110822757983</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4207948442394037</v>
+        <v>0.5083909976100067</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2004,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.20577167622557</v>
+        <v>46.13430912032111</v>
       </c>
       <c r="C9" t="n">
-        <v>1.732581864794095</v>
+        <v>1.70651365245382</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4720577167622557</v>
+        <v>0.4613430912032112</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4370001431713753</v>
+        <v>0.4255222944328576</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2023,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.80790491267226</v>
+        <v>54.78905526864419</v>
       </c>
       <c r="C10" t="n">
-        <v>1.710743700588743</v>
+        <v>1.306153563410044</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5380790491267226</v>
+        <v>0.5478905526864419</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4978802945206366</v>
+        <v>0.5044415908005216</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2042,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>61.98704141039282</v>
+        <v>59.05725828078098</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9014042059580485</v>
+        <v>1.054924152294795</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6198704141039283</v>
+        <v>0.5905725828078097</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6138740399924014</v>
+        <v>0.5636547014753586</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2061,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52.9063400202424</v>
+        <v>51.52942499502591</v>
       </c>
       <c r="C12" t="n">
-        <v>1.320920812090238</v>
+        <v>1.30726436873277</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5290634002024239</v>
+        <v>0.5152942499502591</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4915152261761313</v>
+        <v>0.5093335742099739</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.00661770430541</v>
+        <v>52.37104127198332</v>
       </c>
       <c r="C13" t="n">
-        <v>1.277445826058587</v>
+        <v>1.196467097476125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5500661770430539</v>
+        <v>0.5237104127198332</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5200710206333069</v>
+        <v>0.4942384220063277</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2099,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60.96012941288419</v>
+        <v>62.6639503801936</v>
       </c>
       <c r="C14" t="n">
-        <v>1.124338367084662</v>
+        <v>1.022394457956155</v>
       </c>
       <c r="D14" t="n">
-        <v>0.609601294128842</v>
+        <v>0.626639503801936</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5962446934554223</v>
+        <v>0.6185134152614333</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2118,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.32999420410212</v>
+        <v>74.9391430721719</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5679706737709542</v>
+        <v>0.7577531070157419</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7732999420410211</v>
+        <v>0.7493914307217191</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7607132424475884</v>
+        <v>0.7255329625886369</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2137,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.41918182683241</v>
+        <v>88.53822264898486</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3435538696746031</v>
+        <v>0.303174671685944</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8741918182683242</v>
+        <v>0.8853822264898484</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8695055737142878</v>
+        <v>0.8850931743252708</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2156,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>58.5734190318832</v>
+        <v>58.8487328321756</v>
       </c>
       <c r="C17" t="n">
-        <v>1.231726654214112</v>
+        <v>1.257247748273658</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5857341903188321</v>
+        <v>0.588487328321756</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5581423484002334</v>
+        <v>0.5633614162369411</v>
       </c>
     </row>
   </sheetData>
